--- a/images/MINUTES/全体スケジュール.xlsx
+++ b/images/MINUTES/全体スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iwamototsuki/Desktop/github 編集/images/MINUTES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63C83385-DC44-DE4A-8386-9B50E764BA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C759189E-5F7B-3942-A686-3FCE6BB29427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{C834FEBA-EE02-1D4A-A7B1-08C6C82C990F}"/>
   </bookViews>
@@ -810,5 +810,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>